--- a/medicine/Hématologie/Jean-Pierre_Soulier/Jean-Pierre_Soulier.xlsx
+++ b/medicine/Hématologie/Jean-Pierre_Soulier/Jean-Pierre_Soulier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Soulier, né le 14 septembre 1915 à Étretat et mort le 18 janvier 2003 à Paris 16e[1], est un hématologue français. Son nom est attaché avec celui de son confrère, le professeur Jean Bernard dans la Maladie de Bernard et Soulier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Soulier, né le 14 septembre 1915 à Étretat et mort le 18 janvier 2003 à Paris 16e, est un hématologue français. Son nom est attaché avec celui de son confrère, le professeur Jean Bernard dans la Maladie de Bernard et Soulier.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Soulier est né en 1915 à Étretat en Normandie. Il est le petit-fils d'un chirurgien. Après des études primaires et secondaires à Rouen, il entre à l'âge de 15 ans au lycée Pasteur de Neuilly à Paris, où il obtient son BEP. Il poursuit par la suite des études universitaires et obtint son diplôme de médecine à l'Université de Paris en 1937. 
 En 1938, il devient interne des hôpitaux de Paris. En 1944, il est nommé au poste de chef de clinique à la faculté de médecine de Paris. En 1945, après la Seconde Guerre mondiale, il suit une formation complémentaire à l'Université Harvard aux États-Unis pendant un an en tant que chercheur. Après son retour, il devient d'abord chef de laboratoire d'un service régional de collecte de sang à Paris. Neuf ans plus tard, il est nommé au poste de directeur de l'Institut national des services transfusionnels. 
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les intérêts principaux de ses recherches se situent à la fois dans le domaine de la transfusion sanguine et de la coagulation sanguine. Il introduit quelques techniques nouvelles pour étudier divers problèmes dans ce domaine. 
 En 1947, il publie la découverte de la substance anticoagulante phénindione, la première préparation d'une fraction thérapeutique de plasma sanguin pour le traitement réussi d'un déficit en facteur IX et du complexe prothrombique. Le syndrome de Bernard-Soulier, un trouble congénital des fonctions des plaquettes sanguines (thrombocytes), avec une tendance accrue aux saignements, porte son nom.
